--- a/public/datafiles/ward_data.xlsx
+++ b/public/datafiles/ward_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9276E2-1079-4DD9-BF97-8D8F22B6FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC965DD-5B31-4CE0-8EEB-2AB57AFF5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,12 +379,12 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>

--- a/public/datafiles/ward_data.xlsx
+++ b/public/datafiles/ward_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC965DD-5B31-4CE0-8EEB-2AB57AFF5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525648D-85AA-4ADB-AB6F-F808DDD69BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Residential, Slum, Water_body</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Hasmathpet</t>
+  </si>
+  <si>
+    <t>SR Nagar</t>
   </si>
 </sst>
 </file>
@@ -376,15 +379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -419,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,6 +459,41 @@
         <v>5198</v>
       </c>
       <c r="K2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>7000</v>
+      </c>
+      <c r="E3">
+        <v>234554</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3">
+        <v>679234</v>
+      </c>
+      <c r="J3">
+        <v>4134</v>
+      </c>
+      <c r="K3" t="s">
         <v>0</v>
       </c>
     </row>
